--- a/importExcelMvc/wwwroot/testedeexportacao.xlsx
+++ b/importExcelMvc/wwwroot/testedeexportacao.xlsx
@@ -165,7 +165,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
